--- a/data/desgn_params.xlsx
+++ b/data/desgn_params.xlsx
@@ -2,19 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580"/>
   </bookViews>
   <sheets>
-    <sheet name="orb_mission" sheetId="1" r:id="rId1"/>
-    <sheet name="hardware" sheetId="3" r:id="rId2"/>
-    <sheet name="orb_props" sheetId="2" r:id="rId3"/>
+    <sheet name="hardware" sheetId="3" r:id="rId1"/>
+    <sheet name="orb_mission" sheetId="1" r:id="rId2"/>
+    <sheet name="probe_mission" sheetId="5" r:id="rId3"/>
+    <sheet name="probe_props" sheetId="4" r:id="rId4"/>
+    <sheet name="orb_props" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>value</t>
   </si>
@@ -152,6 +154,15 @@
   </si>
   <si>
     <t>Honeywell HR12</t>
+  </si>
+  <si>
+    <t>probe_mass</t>
+  </si>
+  <si>
+    <t>n_thrusters</t>
+  </si>
+  <si>
+    <t>cold_gas_rho</t>
   </si>
 </sst>
 </file>
@@ -198,11 +209,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -484,6 +496,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="5" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>195</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>9.5</v>
+      </c>
+      <c r="F3">
+        <v>105</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.5876999999999999E-2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3">
+        <f>I3*H3</f>
+        <v>6.3507999999999995E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3">
+        <v>9.01289E-4</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <f>I4*H4</f>
+        <v>1.802578E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>3.55</v>
+      </c>
+      <c r="G5">
+        <v>13.5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>9.9133125000000002E-3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4">
+        <f>SUM(L3:L4)</f>
+        <v>6.5310577999999994E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -600,167 +782,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>0.2</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>195</v>
-      </c>
-      <c r="G2">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="I2" s="4">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="E3">
-        <v>9.5</v>
-      </c>
-      <c r="F3">
-        <v>105</v>
-      </c>
-      <c r="G3">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1.5876999999999999E-2</v>
-      </c>
-      <c r="I3" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4">
-        <v>1.5</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3">
-        <v>9.01289E-4</v>
-      </c>
-      <c r="I4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>3.55</v>
-      </c>
-      <c r="G5">
-        <v>13.5</v>
-      </c>
-      <c r="H5" s="3">
-        <v>9.9133125000000002E-3</v>
-      </c>
-      <c r="I5" s="4">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,6 +895,9 @@
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -829,7 +936,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>2195</v>
+        <v>2142</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>

--- a/data/desgn_params.xlsx
+++ b/data/desgn_params.xlsx
@@ -15,8 +15,8 @@
     <sheet name="hardware" sheetId="3" r:id="rId1"/>
     <sheet name="orb_mission" sheetId="1" r:id="rId2"/>
     <sheet name="probe_mission" sheetId="5" r:id="rId3"/>
-    <sheet name="probe_props" sheetId="4" r:id="rId4"/>
-    <sheet name="orb_props" sheetId="2" r:id="rId5"/>
+    <sheet name="orb_props" sheetId="2" r:id="rId4"/>
+    <sheet name="probe_props" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>value</t>
   </si>
@@ -141,9 +141,6 @@
     <t>volume</t>
   </si>
   <si>
-    <t xml:space="preserve">ATA </t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -163,6 +160,48 @@
   </si>
   <si>
     <t>cold_gas_rho</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>d_lander</t>
+  </si>
+  <si>
+    <t>d_hs</t>
+  </si>
+  <si>
+    <t>h_lander</t>
+  </si>
+  <si>
+    <t>ref sub_output</t>
+  </si>
+  <si>
+    <t>app_slew</t>
+  </si>
+  <si>
+    <t>app_time</t>
+  </si>
+  <si>
+    <t>Honeywell HR0610</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>Honeywell HR14</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>MSL Terminal descent</t>
+  </si>
+  <si>
+    <t>Deep Space Comm book p455</t>
+  </si>
+  <si>
+    <t>Honeywell MIMU</t>
   </si>
 </sst>
 </file>
@@ -497,15 +536,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -541,7 +580,10 @@
         <v>36</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -575,10 +617,13 @@
       <c r="J2" t="s">
         <v>31</v>
       </c>
+      <c r="K2">
+        <v>6000</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -604,41 +649,42 @@
       <c r="I3" s="5">
         <v>4</v>
       </c>
-      <c r="L3" s="3">
-        <f>I3*H3</f>
-        <v>6.3507999999999995E-2</v>
-      </c>
+      <c r="K3">
+        <v>6000</v>
+      </c>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
       <c r="E4">
-        <v>1.5</v>
+        <v>4.7</v>
+      </c>
+      <c r="F4">
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3">
-        <v>9.01289E-4</v>
+        <f>0.169*PI()*0.233^2</f>
+        <v>2.8823613083454436E-2</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
       </c>
-      <c r="L4" s="3">
-        <f>I4*H4</f>
-        <v>1.802578E-3</v>
-      </c>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
       </c>
       <c r="E5">
         <v>3.55</v>
@@ -652,9 +698,74 @@
       <c r="I5" s="5">
         <v>2</v>
       </c>
-      <c r="L5" s="4">
-        <f>SUM(L3:L4)</f>
-        <v>6.5310577999999994E-2</v>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3">
+        <f>0.265*0.267*0.12</f>
+        <v>8.4906000000000009E-3</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8" s="3">
+        <f>1.3*0.5*0.4</f>
+        <v>0.26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -666,10 +777,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,6 +885,28 @@
       </c>
       <c r="D9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -807,59 +940,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2">
-        <v>162</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4">
-        <v>280</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -948,4 +1028,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>1.2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <f>B5*1.7</f>
+        <v>2.04</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>0.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/desgn_params.xlsx
+++ b/data/desgn_params.xlsx
@@ -12,11 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580"/>
   </bookViews>
   <sheets>
-    <sheet name="hardware" sheetId="3" r:id="rId1"/>
-    <sheet name="orb_mission" sheetId="1" r:id="rId2"/>
-    <sheet name="probe_mission" sheetId="5" r:id="rId3"/>
+    <sheet name="PRIMARY INPUTS" sheetId="6" r:id="rId1"/>
+    <sheet name="hardware" sheetId="3" r:id="rId2"/>
+    <sheet name="orb_mission" sheetId="1" r:id="rId3"/>
     <sheet name="orb_props" sheetId="2" r:id="rId4"/>
     <sheet name="probe_props" sheetId="4" r:id="rId5"/>
+    <sheet name="probe_mission" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>value</t>
   </si>
@@ -78,9 +79,6 @@
     <t>slew_burn_pct</t>
   </si>
   <si>
-    <t>slew burn time</t>
-  </si>
-  <si>
     <t>orbiter_mass</t>
   </si>
   <si>
@@ -162,21 +160,6 @@
     <t>cold_gas_rho</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>d_lander</t>
-  </si>
-  <si>
-    <t>d_hs</t>
-  </si>
-  <si>
-    <t>h_lander</t>
-  </si>
-  <si>
-    <t>ref sub_output</t>
-  </si>
-  <si>
     <t>app_slew</t>
   </si>
   <si>
@@ -202,6 +185,21 @@
   </si>
   <si>
     <t>Honeywell MIMU</t>
+  </si>
+  <si>
+    <t>maneuver angle for solar array and HGA</t>
+  </si>
+  <si>
+    <t>maneuver time for solar array and HGA</t>
+  </si>
+  <si>
+    <t>thruster slew burn time</t>
+  </si>
+  <si>
+    <t>full orbiter slew maneuver</t>
+  </si>
+  <si>
+    <t>orbiter_SA_mass</t>
   </si>
 </sst>
 </file>
@@ -209,7 +207,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -252,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -535,11 +533,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>2142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,39 +619,39 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="K1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -615,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2">
         <v>6000</v>
@@ -623,10 +683,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -656,10 +716,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>4.7</v>
@@ -681,10 +741,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
       </c>
       <c r="E5">
         <v>3.55</v>
@@ -702,10 +762,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -735,10 +795,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>75</v>
@@ -749,10 +809,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>25</v>
@@ -765,7 +825,7 @@
         <v>0.26</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -774,13 +834,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,6 +902,9 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -884,12 +947,12 @@
         <v>0.05</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>49</v>
+      <c r="A10" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B10">
         <v>90</v>
@@ -897,16 +960,22 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
+      <c r="A11" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B11">
         <v>120</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -915,7 +984,154 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f>'PRIMARY INPUTS'!B2</f>
+        <v>2142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <f>'PRIMARY INPUTS'!B3</f>
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -936,186 +1152,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>2142</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2">
-        <v>162</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5">
-        <v>1.2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6">
-        <f>B5*1.7</f>
-        <v>2.04</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7">
-        <v>0.72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/desgn_params.xlsx
+++ b/data/desgn_params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PRIMARY INPUTS" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>value</t>
   </si>
@@ -196,10 +196,13 @@
     <t>thruster slew burn time</t>
   </si>
   <si>
-    <t>full orbiter slew maneuver</t>
-  </si>
-  <si>
     <t>orbiter_SA_mass</t>
+  </si>
+  <si>
+    <t>full orbiter slew maneuver using thrusters</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
   </si>
 </sst>
 </file>
@@ -535,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +582,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -815,7 +818,8 @@
         <v>48</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <f>25/899</f>
+        <v>2.7808676307007785E-2</v>
       </c>
       <c r="G8">
         <v>30</v>
@@ -839,8 +843,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,10 +904,10 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -990,7 +994,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1086,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,6 +1128,9 @@
       </c>
       <c r="B4">
         <v>280</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/desgn_params.xlsx
+++ b/data/desgn_params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="PRIMARY INPUTS" sheetId="6" r:id="rId1"/>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>2142</v>
+        <v>2252</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -843,7 +843,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B8">
         <f>'PRIMARY INPUTS'!B2</f>
-        <v>2142</v>
+        <v>2252</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>

--- a/data/desgn_params.xlsx
+++ b/data/desgn_params.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexisPC\PycharmProjects\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EE5DF4-09A6-435E-A007-FF0FA1C5FE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580"/>
+    <workbookView xWindow="5010" yWindow="1425" windowWidth="20370" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRIMARY INPUTS" sheetId="6" r:id="rId1"/>
@@ -19,10 +20,18 @@
     <sheet name="probe_props" sheetId="4" r:id="rId5"/>
     <sheet name="probe_mission" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -208,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
   </numFmts>
@@ -535,11 +544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +569,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>2252</v>
+        <v>2252.195181</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -574,7 +583,7 @@
         <v>40</v>
       </c>
       <c r="B3">
-        <v>162</v>
+        <v>163.5856928</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -593,11 +602,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -839,7 +849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -989,7 +999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -1067,7 +1077,7 @@
       </c>
       <c r="B8">
         <f>'PRIMARY INPUTS'!B2</f>
-        <v>2252</v>
+        <v>2252.195181</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1082,7 +1092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1108,7 +1118,7 @@
       </c>
       <c r="B2">
         <f>'PRIMARY INPUTS'!B3</f>
-        <v>162</v>
+        <v>163.5856928</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1139,7 +1149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/desgn_params.xlsx
+++ b/data/desgn_params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRIMARY INPUTS" sheetId="6" r:id="rId1"/>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,10 +599,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,7 @@
     <col min="11" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -649,7 +649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -684,7 +684,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -717,7 +717,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -734,15 +734,15 @@
         <v>32</v>
       </c>
       <c r="H4" s="3">
-        <f>0.169*PI()*0.233^2</f>
-        <v>2.8823613083454436E-2</v>
+        <f>0.169*PI()*(0.233/2)^2</f>
+        <v>7.2059032708636089E-3</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -763,7 +763,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -795,8 +795,19 @@
       <c r="K6">
         <v>6000</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f>Q7*4</f>
+        <v>13</v>
+      </c>
+      <c r="R6">
+        <f>R7*4</f>
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -809,8 +820,22 @@
       <c r="D7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>10.6</v>
+      </c>
+      <c r="Q7">
+        <f>Q8/0.4</f>
+        <v>3.25</v>
+      </c>
+      <c r="R7">
+        <f>R8/0.4</f>
+        <v>1.25</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -830,6 +855,15 @@
       </c>
       <c r="L8" t="s">
         <v>50</v>
+      </c>
+      <c r="Q8">
+        <v>1.3</v>
+      </c>
+      <c r="R8">
+        <v>0.5</v>
+      </c>
+      <c r="S8">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/data/desgn_params.xlsx
+++ b/data/desgn_params.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexisPC\PycharmProjects\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE42BFE-81A5-40E3-A28C-594AAA570629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="1815" windowWidth="22215" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRIMARY INPUTS" sheetId="6" r:id="rId1"/>
@@ -19,10 +20,18 @@
     <sheet name="probe_props" sheetId="4" r:id="rId5"/>
     <sheet name="probe_mission" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -208,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
   </numFmts>
@@ -535,7 +544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -597,12 +606,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,8 +859,8 @@
         <v>30</v>
       </c>
       <c r="H8" s="3">
-        <f>1.3*0.5*0.4</f>
-        <v>0.26</v>
+        <f>1.3*0.5*0.4*E8</f>
+        <v>7.2302558398220241E-3</v>
       </c>
       <c r="L8" t="s">
         <v>50</v>
@@ -873,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -1023,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -1116,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1173,7 +1182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/desgn_params.xlsx
+++ b/data/desgn_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexisPC\PycharmProjects\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE42BFE-81A5-40E3-A28C-594AAA570629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F79479-DAA5-42E1-8ED3-13C2B9A1F057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="1815" windowWidth="22215" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3345" windowWidth="25560" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRIMARY INPUTS" sheetId="6" r:id="rId1"/>
@@ -221,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +236,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF9900"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,13 +270,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,8 +582,8 @@
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>2252</v>
+      <c r="B2" s="6">
+        <v>2759.6387890000001</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -582,8 +596,8 @@
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3">
-        <v>162</v>
+      <c r="B3" s="7">
+        <v>210.1542287</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -602,6 +616,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -610,7 +625,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1110,7 +1125,7 @@
       </c>
       <c r="B8">
         <f>'PRIMARY INPUTS'!B2</f>
-        <v>2252</v>
+        <v>2759.6387890000001</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1151,7 +1166,7 @@
       </c>
       <c r="B2">
         <f>'PRIMARY INPUTS'!B3</f>
-        <v>162</v>
+        <v>210.1542287</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>

--- a/data/desgn_params.xlsx
+++ b/data/desgn_params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="PRIMARY INPUTS" sheetId="6" r:id="rId1"/>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>2252</v>
+        <v>2760</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -574,7 +574,7 @@
         <v>40</v>
       </c>
       <c r="B3">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -601,8 +601,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B8">
         <f>'PRIMARY INPUTS'!B2</f>
-        <v>2252</v>
+        <v>2760</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B2">
         <f>'PRIMARY INPUTS'!B3</f>
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>

--- a/data/desgn_params.xlsx
+++ b/data/desgn_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexisPC\PycharmProjects\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F79479-DAA5-42E1-8ED3-13C2B9A1F057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772D630F-8DA0-423B-9844-231603290CA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3345" windowWidth="25560" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="25560" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRIMARY INPUTS" sheetId="6" r:id="rId1"/>
@@ -562,7 +562,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +583,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>2759.6387890000001</v>
+        <v>3284.166976</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -597,7 +597,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="7">
-        <v>210.1542287</v>
+        <v>211.11133659999999</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B8">
         <f>'PRIMARY INPUTS'!B2</f>
-        <v>2759.6387890000001</v>
+        <v>3284.166976</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B2">
         <f>'PRIMARY INPUTS'!B3</f>
-        <v>210.1542287</v>
+        <v>211.11133659999999</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>

--- a/data/desgn_params.xlsx
+++ b/data/desgn_params.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexisPC\PycharmProjects\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772D630F-8DA0-423B-9844-231603290CA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="25560" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRIMARY INPUTS" sheetId="6" r:id="rId1"/>
@@ -19,17 +20,25 @@
     <sheet name="probe_props" sheetId="4" r:id="rId5"/>
     <sheet name="probe_mission" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>value</t>
   </si>
@@ -196,20 +205,23 @@
     <t>thruster slew burn time</t>
   </si>
   <si>
-    <t>full orbiter slew maneuver</t>
-  </si>
-  <si>
     <t>orbiter_SA_mass</t>
+  </si>
+  <si>
+    <t>full orbiter slew maneuver using thrusters</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +236,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF9900"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,13 +270,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,11 +558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,8 +582,8 @@
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>2142</v>
+      <c r="B2" s="6">
+        <v>3284.166976</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -570,8 +596,8 @@
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3">
-        <v>162</v>
+      <c r="B3" s="7">
+        <v>211.11133659999999</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -579,7 +605,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -590,16 +616,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +641,7 @@
     <col min="11" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -646,7 +673,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -681,7 +708,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -714,7 +741,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -731,15 +758,15 @@
         <v>32</v>
       </c>
       <c r="H4" s="3">
-        <f>0.169*PI()*0.233^2</f>
-        <v>2.8823613083454436E-2</v>
+        <f>0.169*PI()*(0.233/2)^2</f>
+        <v>7.2059032708636089E-3</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -760,7 +787,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -792,8 +819,19 @@
       <c r="K6">
         <v>6000</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f>Q7*4</f>
+        <v>13</v>
+      </c>
+      <c r="R6">
+        <f>R7*4</f>
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -806,8 +844,22 @@
       <c r="D7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>10.6</v>
+      </c>
+      <c r="Q7">
+        <f>Q8/0.4</f>
+        <v>3.25</v>
+      </c>
+      <c r="R7">
+        <f>R8/0.4</f>
+        <v>1.25</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -815,17 +867,27 @@
         <v>48</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <f>25/899</f>
+        <v>2.7808676307007785E-2</v>
       </c>
       <c r="G8">
         <v>30</v>
       </c>
       <c r="H8" s="3">
-        <f>1.3*0.5*0.4</f>
-        <v>0.26</v>
+        <f>1.3*0.5*0.4*E8</f>
+        <v>7.2302558398220241E-3</v>
       </c>
       <c r="L8" t="s">
         <v>50</v>
+      </c>
+      <c r="Q8">
+        <v>1.3</v>
+      </c>
+      <c r="R8">
+        <v>0.5</v>
+      </c>
+      <c r="S8">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -835,12 +897,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,10 +962,10 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -985,12 +1047,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1125,7 @@
       </c>
       <c r="B8">
         <f>'PRIMARY INPUTS'!B2</f>
-        <v>2142</v>
+        <v>3284.166976</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1078,11 +1140,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1166,7 @@
       </c>
       <c r="B2">
         <f>'PRIMARY INPUTS'!B3</f>
-        <v>162</v>
+        <v>211.11133659999999</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1124,6 +1186,9 @@
       </c>
       <c r="B4">
         <v>280</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1132,7 +1197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/desgn_params.xlsx
+++ b/data/desgn_params.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexisPC\PycharmProjects\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772D630F-8DA0-423B-9844-231603290CA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="25560" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="25560" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="PRIMARY INPUTS" sheetId="6" r:id="rId1"/>
-    <sheet name="hardware" sheetId="3" r:id="rId2"/>
-    <sheet name="orb_mission" sheetId="1" r:id="rId3"/>
-    <sheet name="orb_props" sheetId="2" r:id="rId4"/>
-    <sheet name="probe_props" sheetId="4" r:id="rId5"/>
-    <sheet name="probe_mission" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
+    <sheet name="hardware" sheetId="3" r:id="rId3"/>
+    <sheet name="orb_mission" sheetId="1" r:id="rId4"/>
+    <sheet name="orb_props" sheetId="2" r:id="rId5"/>
+    <sheet name="probe_props" sheetId="4" r:id="rId6"/>
+    <sheet name="probe_mission" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>value</t>
   </si>
@@ -212,12 +212,36 @@
   </si>
   <si>
     <t>kg/m3</t>
+  </si>
+  <si>
+    <t>A m^2</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>solar array area</t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>TTC earth pt array moi</t>
+  </si>
+  <si>
+    <t>m^4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
   </numFmts>
@@ -558,16 +582,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -583,7 +608,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>3284.166976</v>
+        <v>5438.66</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -614,6 +639,7 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -621,7 +647,210 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>3000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <f>'PRIMARY INPUTS'!B2</f>
+        <v>5438.66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.05</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>7.8826000000000001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>102.87</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S8"/>
   <sheetViews>
@@ -896,13 +1125,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,13 +1275,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1354,7 @@
       </c>
       <c r="B8">
         <f>'PRIMARY INPUTS'!B2</f>
-        <v>3284.166976</v>
+        <v>5438.66</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1139,8 +1368,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1196,8 +1425,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/desgn_params.xlsx
+++ b/data/desgn_params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="25560" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="25560" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRIMARY INPUTS" sheetId="6" r:id="rId1"/>
@@ -21,24 +21,17 @@
     <sheet name="probe_mission" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
   <si>
     <t>value</t>
   </si>
@@ -220,10 +213,16 @@
     <t>years</t>
   </si>
   <si>
-    <t>solar array area</t>
-  </si>
-  <si>
-    <t>m^2</t>
+    <t>solar array mass</t>
+  </si>
+  <si>
+    <t>solar array radius</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>solar array thickness</t>
   </si>
   <si>
     <t>Operations</t>
@@ -232,10 +231,13 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>TTC earth pt array moi</t>
-  </si>
-  <si>
-    <t>m^4</t>
+    <t>TTC earth array mass</t>
+  </si>
+  <si>
+    <t>TTC earth array radius</t>
+  </si>
+  <si>
+    <t>TTC earth array height</t>
   </si>
 </sst>
 </file>
@@ -585,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -648,20 +650,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -807,10 +812,10 @@
         <v>60</v>
       </c>
       <c r="F10">
-        <v>7.8826000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -824,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11">
-        <v>102.87</v>
+        <v>0.05</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -842,6 +847,48 @@
       </c>
       <c r="C12" t="s">
         <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13">
+        <v>45.3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>0.75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1328,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/desgn_params.xlsx
+++ b/data/desgn_params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="25560" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="25560" windowHeight="13020" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PRIMARY INPUTS" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="probe_mission" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -652,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1178,7 +1177,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,8 +1326,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1348,7 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/desgn_params.xlsx
+++ b/data/desgn_params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="25560" windowHeight="13020" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="25560" windowHeight="13020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRIMARY INPUTS" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
   <si>
     <t>value</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>TTC earth array height</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>http://www.msss.com/mars/global_surveyor/mgs_msn_plan/section5/section5.html</t>
   </si>
 </sst>
 </file>
@@ -246,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +280,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -292,10 +306,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -304,8 +319,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1174,10 +1191,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1202,7 @@
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1193,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1204,7 +1221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1218,7 +1235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1232,40 +1249,50 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>B7/60</f>
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1273,7 +1300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1287,12 +1314,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1300,13 +1327,16 @@
       <c r="D10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H10" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B11">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1316,8 +1346,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1326,7 +1359,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
